--- a/MGMT/PLAN/PP/WORK IN PROGRESS/skillsets.xlsx
+++ b/MGMT/PLAN/PP/WORK IN PROGRESS/skillsets.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kmb/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFA0DC3-B2CB-9446-9143-4076CF18BC36}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{1287AE0F-6C17-A148-95E0-B504ED4BB602}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179016"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -144,7 +138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -192,10 +186,10 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -203,8 +197,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -505,53 +527,56 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70491E02-2E79-0240-96C0-4F5F6F359277}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
       <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
       <c r="D2">
         <v>1</v>
       </c>
@@ -562,11 +587,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
       <c r="D3">
         <v>9</v>
       </c>
@@ -577,11 +605,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
       <c r="D4">
         <v>8</v>
       </c>
@@ -592,20 +623,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>36</v>
       </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
       <c r="D5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>8</v>
       </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
       <c r="D6">
         <v>2</v>
       </c>
@@ -616,10 +653,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>9</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -631,11 +671,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>10</v>
       </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
       <c r="D8">
         <v>0</v>
       </c>
@@ -646,11 +689,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>11</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="D9">
         <v>5</v>
       </c>
@@ -661,11 +707,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>13</v>
       </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
       <c r="D10">
         <v>10</v>
       </c>
@@ -676,11 +725,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>14</v>
       </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
       <c r="D11">
         <v>9</v>
       </c>
@@ -691,79 +743,103 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>15</v>
       </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
       <c r="D12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>16</v>
       </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
       <c r="D13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
       <c r="B14" t="s">
         <v>17</v>
       </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
       <c r="D14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>18</v>
       </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
       <c r="D15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>19</v>
       </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
       <c r="D16">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>23</v>
       </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
       <c r="D17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
       </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
       <c r="D19">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
       <c r="B20" t="s">
         <v>12</v>
       </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
       <c r="D20">
         <v>9</v>
       </c>
@@ -774,123 +850,162 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>22</v>
       </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
       <c r="D21">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
       </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
       <c r="D23">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
       <c r="B24" t="s">
         <v>26</v>
       </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
       <c r="D24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
       <c r="B25" t="s">
         <v>27</v>
       </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
       <c r="D25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
       <c r="B26" t="s">
         <v>28</v>
       </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
       <c r="D26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
       <c r="B27" t="s">
         <v>29</v>
       </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
       <c r="D27">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
       <c r="B28" t="s">
         <v>37</v>
       </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
       <c r="D28">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
       <c r="B29" t="s">
         <v>30</v>
       </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
       <c r="D29">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
       <c r="B30" t="s">
         <v>31</v>
       </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
       <c r="D30">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
       <c r="B31" t="s">
         <v>32</v>
       </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
       <c r="D31">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
       <c r="B32" t="s">
         <v>33</v>
       </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
       <c r="D32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
       <c r="B33" t="s">
         <v>34</v>
       </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
       <c r="D33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
       <c r="B34" t="s">
         <v>35</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
       </c>
       <c r="D34">
         <v>6</v>
@@ -908,27 +1023,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="4ea5e6aa-6838-422c-a4a7-68563e031b96">
-      <UserInfo>
-        <DisplayName>MTECH-SE PT-7</DisplayName>
-        <AccountId>7</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Treza Bawm Win</DisplayName>
-        <AccountId>14</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kaung Myat Bo</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1097,20 +1197,33 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="4ea5e6aa-6838-422c-a4a7-68563e031b96">
+      <UserInfo>
+        <DisplayName>MTECH-SE PT-7</DisplayName>
+        <AccountId>7</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Treza Bawm Win</DisplayName>
+        <AccountId>14</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Kaung Myat Bo</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1372794-2848-40D0-8759-186E2A57CF9C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA10A8D5-7A56-491A-B32C-ED2A0C63273C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ea5e6aa-6838-422c-a4a7-68563e031b96"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1135,9 +1248,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA10A8D5-7A56-491A-B32C-ED2A0C63273C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1372794-2848-40D0-8759-186E2A57CF9C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ea5e6aa-6838-422c-a4a7-68563e031b96"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/MGMT/PLAN/PP/WORK IN PROGRESS/skillsets.xlsx
+++ b/MGMT/PLAN/PP/WORK IN PROGRESS/skillsets.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kmb/learning/MTECH/SE25PT7SERIS/MGMT/PLAN/PP/WORK IN PROGRESS/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF8E55D-DD69-2944-A63A-5C1F56A15913}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14085"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1st qtr" sheetId="1" r:id="rId1"/>
+    <sheet name="2nd qtr" sheetId="2" r:id="rId2"/>
+    <sheet name="3rd qtr" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Bala</t>
   </si>
@@ -36,9 +44,6 @@
     <t>William</t>
   </si>
   <si>
-    <t>Cloud services</t>
-  </si>
-  <si>
     <t>JAVA</t>
   </si>
   <si>
@@ -54,9 +59,6 @@
     <t>Spring boot</t>
   </si>
   <si>
-    <t>EC2</t>
-  </si>
-  <si>
     <t>GIT</t>
   </si>
   <si>
@@ -75,9 +77,6 @@
     <t>CSS</t>
   </si>
   <si>
-    <t>API</t>
-  </si>
-  <si>
     <t>Web Socket</t>
   </si>
   <si>
@@ -93,52 +92,40 @@
     <t>AWS Dynamo DB</t>
   </si>
   <si>
-    <t>Documentation Skill</t>
-  </si>
-  <si>
-    <t>Project Plan</t>
-  </si>
-  <si>
-    <t>QA Plan</t>
-  </si>
-  <si>
-    <t>User Requirement Specification</t>
-  </si>
-  <si>
-    <t>Prototyping Study Report</t>
-  </si>
-  <si>
-    <t>Use Case Modelling Report</t>
-  </si>
-  <si>
-    <t>High Leve Design Specification</t>
-  </si>
-  <si>
-    <t>System Test Plan</t>
-  </si>
-  <si>
-    <t>System Integration Test Plan</t>
-  </si>
-  <si>
-    <t>User Acceptence Test Plan</t>
-  </si>
-  <si>
-    <t>User Training Manual and User Guide</t>
-  </si>
-  <si>
-    <t>Source Deployment and Process Guide</t>
-  </si>
-  <si>
     <t>AngularJS 2</t>
   </si>
   <si>
-    <t>Design Modelling Report</t>
+    <t>AWS S3</t>
+  </si>
+  <si>
+    <t>AWS EC2</t>
+  </si>
+  <si>
+    <t>Technical</t>
+  </si>
+  <si>
+    <t>Documentation skills</t>
+  </si>
+  <si>
+    <t>Management skills</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Elasticsearch DB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -172,10 +159,136 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -184,15 +297,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -222,7 +367,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -527,502 +672,766 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="17.625" customWidth="1"/>
-    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="10">
+        <v>7</v>
+      </c>
+      <c r="D3" s="11">
+        <v>7</v>
+      </c>
+      <c r="E3" s="12">
+        <v>8</v>
+      </c>
+      <c r="F3" s="10">
+        <v>8</v>
+      </c>
+      <c r="G3" s="16">
+        <v>9</v>
+      </c>
+      <c r="H3" s="12">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="O3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="20"/>
+      <c r="B4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11">
+        <v>2</v>
+      </c>
+      <c r="E4" s="12">
+        <v>3</v>
+      </c>
+      <c r="F4" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" t="s">
+      <c r="G4" s="16">
+        <v>7</v>
+      </c>
+      <c r="H4" s="12">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="20"/>
+      <c r="B5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>3</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="20"/>
+      <c r="B6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11">
+        <v>2</v>
+      </c>
+      <c r="E6" s="12">
+        <v>3</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="16">
+        <v>4</v>
+      </c>
+      <c r="H6" s="12">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="20"/>
+      <c r="B7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2</v>
+      </c>
+      <c r="D7" s="11">
+        <v>2</v>
+      </c>
+      <c r="E7" s="12">
+        <v>3</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16">
+        <v>3</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="20"/>
+      <c r="B8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="16">
+        <v>3</v>
+      </c>
+      <c r="H8" s="12">
         <v>5</v>
       </c>
-      <c r="C2">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="20"/>
+      <c r="B9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12">
+        <v>2</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16">
+        <v>4</v>
+      </c>
+      <c r="H9" s="12">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="20"/>
+      <c r="B10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12">
+        <v>2</v>
+      </c>
+      <c r="F10" s="10">
+        <v>5</v>
+      </c>
+      <c r="G10" s="16">
+        <v>5</v>
+      </c>
+      <c r="H10" s="12">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="20"/>
+      <c r="B11" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="10">
+        <v>4</v>
+      </c>
+      <c r="D11" s="11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="12">
+        <v>5</v>
+      </c>
+      <c r="F11" s="10">
+        <v>7</v>
+      </c>
+      <c r="G11" s="16">
+        <v>7</v>
+      </c>
+      <c r="H11" s="12">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="20"/>
+      <c r="B12" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2</v>
+      </c>
+      <c r="D12" s="11">
+        <v>2</v>
+      </c>
+      <c r="E12" s="12">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="F12" s="10">
+        <v>7</v>
+      </c>
+      <c r="G12" s="16">
+        <v>7</v>
+      </c>
+      <c r="H12" s="12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="20"/>
+      <c r="B13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="10">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" t="s">
+      <c r="D13" s="11">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12">
+        <v>2</v>
+      </c>
+      <c r="F13" s="10">
+        <v>7</v>
+      </c>
+      <c r="G13" s="16">
+        <v>7</v>
+      </c>
+      <c r="H13" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="20"/>
+      <c r="B14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11">
+        <v>2</v>
+      </c>
+      <c r="E14" s="12">
+        <v>3</v>
+      </c>
+      <c r="F14" s="10">
+        <v>7</v>
+      </c>
+      <c r="G14" s="16">
+        <v>7</v>
+      </c>
+      <c r="H14" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="20"/>
+      <c r="B15" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11">
+        <v>2</v>
+      </c>
+      <c r="E15" s="12">
+        <v>3</v>
+      </c>
+      <c r="F15" s="10">
+        <v>7</v>
+      </c>
+      <c r="G15" s="16">
+        <v>7</v>
+      </c>
+      <c r="H15" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="20"/>
+      <c r="B16" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="10">
+        <v>5</v>
+      </c>
+      <c r="D16" s="11">
+        <v>5</v>
+      </c>
+      <c r="E16" s="12">
+        <v>5</v>
+      </c>
+      <c r="F16" s="10">
+        <v>8</v>
+      </c>
+      <c r="G16" s="16">
+        <v>8</v>
+      </c>
+      <c r="H16" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
+      <c r="B17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="10">
+        <v>7</v>
+      </c>
+      <c r="D17" s="11">
+        <v>7</v>
+      </c>
+      <c r="E17" s="12">
+        <v>8</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+      <c r="G17" s="16">
+        <v>1</v>
+      </c>
+      <c r="H17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="20"/>
+      <c r="B18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10">
+        <v>2</v>
+      </c>
+      <c r="G18" s="16">
+        <v>4</v>
+      </c>
+      <c r="H18" s="12">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="10">
         <v>8</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
+      <c r="D20" s="11">
+        <v>8</v>
+      </c>
+      <c r="E20" s="12">
+        <v>9</v>
+      </c>
+      <c r="F20" s="10">
+        <v>7</v>
+      </c>
+      <c r="G20" s="16">
+        <v>7</v>
+      </c>
+      <c r="H20" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="20"/>
+      <c r="B21" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="10">
+        <v>9</v>
+      </c>
+      <c r="D21" s="11">
+        <v>9</v>
+      </c>
+      <c r="E21" s="12">
+        <v>9</v>
+      </c>
+      <c r="F21" s="10">
+        <v>9</v>
+      </c>
+      <c r="G21" s="16">
+        <v>9</v>
+      </c>
+      <c r="H21" s="12">
+        <v>9</v>
+      </c>
+      <c r="I21">
+        <v>9</v>
+      </c>
+      <c r="O21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="20"/>
+      <c r="B22" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="10">
+        <v>8</v>
+      </c>
+      <c r="D22" s="11">
+        <v>8</v>
+      </c>
+      <c r="E22" s="12">
+        <v>9</v>
+      </c>
+      <c r="F22" s="10">
+        <v>9</v>
+      </c>
+      <c r="G22" s="16">
+        <v>9</v>
+      </c>
+      <c r="H22" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="21"/>
+      <c r="B24" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="10">
+        <v>8</v>
+      </c>
+      <c r="D24" s="11">
+        <v>8</v>
+      </c>
+      <c r="E24" s="12">
+        <v>9</v>
+      </c>
+      <c r="F24" s="10">
+        <v>4</v>
+      </c>
+      <c r="G24" s="16">
+        <v>5</v>
+      </c>
+      <c r="H24" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="13">
+        <v>8</v>
+      </c>
+      <c r="D25" s="14">
+        <v>8</v>
+      </c>
+      <c r="E25" s="15">
+        <v>9</v>
+      </c>
+      <c r="F25" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
+      <c r="G25" s="14">
         <v>4</v>
       </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
+      <c r="H25" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17">
-        <v>7</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20">
-        <v>9</v>
-      </c>
-      <c r="D20">
-        <v>9</v>
-      </c>
-      <c r="E20">
-        <v>9</v>
-      </c>
-      <c r="F20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21">
-        <v>9</v>
-      </c>
-      <c r="D21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23">
-        <v>9</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24">
-        <v>9</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25">
-        <v>9</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26">
-        <v>9</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27">
-        <v>9</v>
-      </c>
-      <c r="D27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28">
-        <v>7</v>
-      </c>
-      <c r="D28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29">
-        <v>6</v>
-      </c>
-      <c r="D29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30">
-        <v>7</v>
-      </c>
-      <c r="D30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31">
-        <v>7</v>
-      </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32">
-        <v>6</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33">
-        <v>5</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
-      <c r="D34">
-        <v>6</v>
-      </c>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A23:A34"/>
+  <mergeCells count="6">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01AA4A7-E506-4149-9A59-146ABAA951E2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10C5A40-AD4A-BE48-B48C-BB9D449109E4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="4ea5e6aa-6838-422c-a4a7-68563e031b96">
+      <UserInfo>
+        <DisplayName>MTECH-SE PT-7</DisplayName>
+        <AccountId>7</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Treza Bawm Win</DisplayName>
+        <AccountId>14</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Kaung Myat Bo</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1031,7 +1440,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005B49AD9B331C4641B4046595A2039F92" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f9b45159473b27e044485c23f55d4df5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="061dbba2-bf6f-42a7-92c2-825cebdcde53" xmlns:ns3="4ea5e6aa-6838-422c-a4a7-68563e031b96" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="76cbf2ca174bf1483c4c5692bb00f5ba" ns2:_="" ns3:_="">
     <xsd:import namespace="061dbba2-bf6f-42a7-92c2-825cebdcde53"/>
@@ -1196,31 +1605,17 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="4ea5e6aa-6838-422c-a4a7-68563e031b96">
-      <UserInfo>
-        <DisplayName>MTECH-SE PT-7</DisplayName>
-        <AccountId>7</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Treza Bawm Win</DisplayName>
-        <AccountId>14</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kaung Myat Bo</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1372794-2848-40D0-8759-186E2A57CF9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ea5e6aa-6838-422c-a4a7-68563e031b96"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA10A8D5-7A56-491A-B32C-ED2A0C63273C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1228,7 +1623,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21DC2B48-225D-4F29-AC2C-86F50C48D6A3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1245,14 +1640,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1372794-2848-40D0-8759-186E2A57CF9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ea5e6aa-6838-422c-a4a7-68563e031b96"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/MGMT/PLAN/PP/WORK IN PROGRESS/skillsets.xlsx
+++ b/MGMT/PLAN/PP/WORK IN PROGRESS/skillsets.xlsx
@@ -1,25 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kmb/learning/MTECH/SE25PT7SERIS/MGMT/PLAN/PP/WORK IN PROGRESS/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF8E55D-DD69-2944-A63A-5C1F56A15913}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="19440" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="1st qtr" sheetId="1" r:id="rId1"/>
     <sheet name="2nd qtr" sheetId="2" r:id="rId2"/>
     <sheet name="3rd qtr" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -125,8 +119,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -159,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -293,31 +287,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -331,13 +383,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,7 +448,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -426,7 +507,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -478,7 +559,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -672,82 +753,82 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.125" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="4" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
       <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="7" t="s">
+    <row r="2" spans="1:15">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="17" t="s">
         <v>29</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -763,608 +844,776 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:15" ht="15.95" customHeight="1">
+      <c r="A3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="10">
-        <v>7</v>
-      </c>
-      <c r="D3" s="11">
-        <v>7</v>
-      </c>
-      <c r="E3" s="12">
+      <c r="B3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7">
         <v>8</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="5">
         <v>8</v>
       </c>
-      <c r="G3" s="16">
-        <v>9</v>
-      </c>
-      <c r="H3" s="12">
-        <v>9</v>
-      </c>
-      <c r="I3">
+      <c r="G3" s="11">
+        <v>9</v>
+      </c>
+      <c r="H3" s="6">
+        <v>9</v>
+      </c>
+      <c r="I3" s="27">
+        <v>7</v>
+      </c>
+      <c r="J3" s="6">
+        <v>7</v>
+      </c>
+      <c r="K3" s="28">
         <v>7</v>
       </c>
       <c r="O3">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="18" t="s">
+    <row r="4" spans="1:15">
+      <c r="A4" s="19"/>
+      <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10">
-        <v>2</v>
-      </c>
-      <c r="D4" s="11">
-        <v>2</v>
-      </c>
-      <c r="E4" s="12">
-        <v>3</v>
-      </c>
-      <c r="F4" s="10">
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5">
         <v>4</v>
       </c>
-      <c r="G4" s="16">
-        <v>7</v>
-      </c>
-      <c r="H4" s="12">
-        <v>7</v>
-      </c>
-      <c r="I4">
+      <c r="G4" s="11">
+        <v>7</v>
+      </c>
+      <c r="H4" s="6">
+        <v>7</v>
+      </c>
+      <c r="I4" s="27">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="28">
         <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="1:15">
+      <c r="A5" s="19"/>
+      <c r="B5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="10">
-        <v>2</v>
-      </c>
-      <c r="D5" s="11">
-        <v>2</v>
-      </c>
-      <c r="E5" s="12">
-        <v>3</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="16">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="10">
-        <v>2</v>
-      </c>
-      <c r="D6" s="11">
-        <v>2</v>
-      </c>
-      <c r="E6" s="12">
-        <v>3</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="29">
         <v>1</v>
       </c>
-      <c r="G6" s="16">
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+      <c r="K5" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="19"/>
+      <c r="B6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11">
         <v>4</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="6">
         <v>6</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="27">
+        <v>4</v>
+      </c>
+      <c r="J6" s="6">
+        <v>4</v>
+      </c>
+      <c r="K6" s="28">
         <v>4</v>
       </c>
       <c r="O6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="18" t="s">
+    <row r="7" spans="1:15">
+      <c r="A7" s="19"/>
+      <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10">
-        <v>2</v>
-      </c>
-      <c r="D7" s="11">
-        <v>2</v>
-      </c>
-      <c r="E7" s="12">
-        <v>3</v>
-      </c>
-      <c r="F7" s="10">
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5">
         <v>1</v>
       </c>
-      <c r="G7" s="16">
-        <v>3</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7">
+      <c r="G7" s="11">
+        <v>3</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="27">
+        <v>3</v>
+      </c>
+      <c r="J7" s="6">
+        <v>3</v>
+      </c>
+      <c r="K7" s="28">
         <v>3</v>
       </c>
       <c r="O7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="18" t="s">
+    <row r="8" spans="1:15">
+      <c r="A8" s="19"/>
+      <c r="B8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="10">
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="5">
         <v>1</v>
       </c>
-      <c r="G8" s="16">
-        <v>3</v>
-      </c>
-      <c r="H8" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="G8" s="11">
+        <v>3</v>
+      </c>
+      <c r="H8" s="6">
+        <v>5</v>
+      </c>
+      <c r="I8" s="29">
+        <v>2</v>
+      </c>
+      <c r="J8" s="11">
+        <v>2</v>
+      </c>
+      <c r="K8" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="19"/>
+      <c r="B9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="6">
         <v>1</v>
       </c>
-      <c r="E9" s="12">
-        <v>2</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="16">
+      <c r="E9" s="7">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
         <v>4</v>
       </c>
-      <c r="H9" s="12">
-        <v>7</v>
-      </c>
-      <c r="I9">
+      <c r="H9" s="6">
+        <v>7</v>
+      </c>
+      <c r="I9" s="27">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="28">
         <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="18" t="s">
+    <row r="10" spans="1:15">
+      <c r="A10" s="19"/>
+      <c r="B10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="6">
         <v>1</v>
       </c>
-      <c r="E10" s="12">
-        <v>2</v>
-      </c>
-      <c r="F10" s="10">
-        <v>5</v>
-      </c>
-      <c r="G10" s="16">
-        <v>5</v>
-      </c>
-      <c r="H10" s="12">
-        <v>5</v>
-      </c>
-      <c r="I10">
+      <c r="E10" s="7">
+        <v>2</v>
+      </c>
+      <c r="F10" s="5">
+        <v>5</v>
+      </c>
+      <c r="G10" s="11">
+        <v>5</v>
+      </c>
+      <c r="H10" s="6">
+        <v>5</v>
+      </c>
+      <c r="I10" s="27">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="28">
         <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
-      <c r="B11" s="18" t="s">
+    <row r="11" spans="1:15">
+      <c r="A11" s="19"/>
+      <c r="B11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="5">
         <v>4</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="6">
         <v>4</v>
       </c>
-      <c r="E11" s="12">
-        <v>5</v>
-      </c>
-      <c r="F11" s="10">
-        <v>7</v>
-      </c>
-      <c r="G11" s="16">
-        <v>7</v>
-      </c>
-      <c r="H11" s="12">
-        <v>7</v>
-      </c>
-      <c r="I11">
+      <c r="E11" s="7">
+        <v>5</v>
+      </c>
+      <c r="F11" s="5">
+        <v>7</v>
+      </c>
+      <c r="G11" s="11">
+        <v>7</v>
+      </c>
+      <c r="H11" s="6">
+        <v>7</v>
+      </c>
+      <c r="I11" s="27">
         <v>4</v>
       </c>
+      <c r="J11" s="6">
+        <v>4</v>
+      </c>
+      <c r="K11" s="28">
+        <v>4</v>
+      </c>
       <c r="O11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="18" t="s">
+    <row r="12" spans="1:15">
+      <c r="A12" s="19"/>
+      <c r="B12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="10">
-        <v>2</v>
-      </c>
-      <c r="D12" s="11">
-        <v>2</v>
-      </c>
-      <c r="E12" s="12">
-        <v>3</v>
-      </c>
-      <c r="F12" s="10">
-        <v>7</v>
-      </c>
-      <c r="G12" s="16">
-        <v>7</v>
-      </c>
-      <c r="H12" s="12">
-        <v>7</v>
-      </c>
-      <c r="I12">
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>3</v>
+      </c>
+      <c r="F12" s="5">
+        <v>7</v>
+      </c>
+      <c r="G12" s="11">
+        <v>7</v>
+      </c>
+      <c r="H12" s="6">
+        <v>7</v>
+      </c>
+      <c r="I12" s="27">
+        <v>3</v>
+      </c>
+      <c r="J12" s="6">
+        <v>3</v>
+      </c>
+      <c r="K12" s="28">
         <v>3</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="18" t="s">
+    <row r="13" spans="1:15">
+      <c r="A13" s="19"/>
+      <c r="B13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="5">
         <v>1</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="6">
         <v>1</v>
       </c>
-      <c r="E13" s="12">
-        <v>2</v>
-      </c>
-      <c r="F13" s="10">
-        <v>7</v>
-      </c>
-      <c r="G13" s="16">
-        <v>7</v>
-      </c>
-      <c r="H13" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="18" t="s">
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+      <c r="F13" s="5">
+        <v>7</v>
+      </c>
+      <c r="G13" s="11">
+        <v>7</v>
+      </c>
+      <c r="H13" s="6">
+        <v>7</v>
+      </c>
+      <c r="I13" s="29">
+        <v>1</v>
+      </c>
+      <c r="J13" s="11">
+        <v>1</v>
+      </c>
+      <c r="K13" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="19"/>
+      <c r="B14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="10">
-        <v>2</v>
-      </c>
-      <c r="D14" s="11">
-        <v>2</v>
-      </c>
-      <c r="E14" s="12">
-        <v>3</v>
-      </c>
-      <c r="F14" s="10">
-        <v>7</v>
-      </c>
-      <c r="G14" s="16">
-        <v>7</v>
-      </c>
-      <c r="H14" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="18" t="s">
+      <c r="C14" s="5">
+        <v>2</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5">
+        <v>7</v>
+      </c>
+      <c r="G14" s="11">
+        <v>7</v>
+      </c>
+      <c r="H14" s="6">
+        <v>7</v>
+      </c>
+      <c r="I14" s="29">
+        <v>3</v>
+      </c>
+      <c r="J14" s="11">
+        <v>3</v>
+      </c>
+      <c r="K14" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="19"/>
+      <c r="B15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="10">
-        <v>2</v>
-      </c>
-      <c r="D15" s="11">
-        <v>2</v>
-      </c>
-      <c r="E15" s="12">
-        <v>3</v>
-      </c>
-      <c r="F15" s="10">
-        <v>7</v>
-      </c>
-      <c r="G15" s="16">
-        <v>7</v>
-      </c>
-      <c r="H15" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
-      <c r="B16" s="18" t="s">
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6">
+        <v>2</v>
+      </c>
+      <c r="E15" s="7">
+        <v>3</v>
+      </c>
+      <c r="F15" s="5">
+        <v>7</v>
+      </c>
+      <c r="G15" s="11">
+        <v>7</v>
+      </c>
+      <c r="H15" s="6">
+        <v>7</v>
+      </c>
+      <c r="I15" s="29">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0</v>
+      </c>
+      <c r="K15" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="19"/>
+      <c r="B16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="10">
-        <v>5</v>
-      </c>
-      <c r="D16" s="11">
-        <v>5</v>
-      </c>
-      <c r="E16" s="12">
-        <v>5</v>
-      </c>
-      <c r="F16" s="10">
+      <c r="C16" s="5">
+        <v>5</v>
+      </c>
+      <c r="D16" s="6">
+        <v>5</v>
+      </c>
+      <c r="E16" s="7">
+        <v>5</v>
+      </c>
+      <c r="F16" s="5">
         <v>8</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="11">
         <v>8</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="18" t="s">
+      <c r="I16" s="29">
+        <v>5</v>
+      </c>
+      <c r="J16" s="11">
+        <v>5</v>
+      </c>
+      <c r="K16" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="19"/>
+      <c r="B17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="10">
-        <v>7</v>
-      </c>
-      <c r="D17" s="11">
-        <v>7</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="C17" s="5">
+        <v>7</v>
+      </c>
+      <c r="D17" s="6">
+        <v>7</v>
+      </c>
+      <c r="E17" s="7">
         <v>8</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="5">
         <v>1</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="11">
         <v>1</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="18" t="s">
+      <c r="I17" s="29">
+        <v>3</v>
+      </c>
+      <c r="J17" s="11">
+        <v>3</v>
+      </c>
+      <c r="K17" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="19"/>
+      <c r="B18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="10">
-        <v>0</v>
-      </c>
-      <c r="D18" s="16">
-        <v>0</v>
-      </c>
-      <c r="E18" s="12">
-        <v>0</v>
-      </c>
-      <c r="F18" s="10">
-        <v>2</v>
-      </c>
-      <c r="G18" s="16">
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2</v>
+      </c>
+      <c r="G18" s="11">
         <v>4</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+      <c r="I18" s="29">
+        <v>3</v>
+      </c>
+      <c r="J18" s="11">
+        <v>3</v>
+      </c>
+      <c r="K18" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="28"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="5">
         <v>8</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="6">
         <v>8</v>
       </c>
-      <c r="E20" s="12">
-        <v>9</v>
-      </c>
-      <c r="F20" s="10">
-        <v>7</v>
-      </c>
-      <c r="G20" s="16">
-        <v>7</v>
-      </c>
-      <c r="H20" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="18" t="s">
+      <c r="E20" s="7">
+        <v>9</v>
+      </c>
+      <c r="F20" s="5">
+        <v>7</v>
+      </c>
+      <c r="G20" s="11">
+        <v>7</v>
+      </c>
+      <c r="H20" s="6">
+        <v>7</v>
+      </c>
+      <c r="I20" s="29">
+        <v>7</v>
+      </c>
+      <c r="J20" s="11">
+        <v>7</v>
+      </c>
+      <c r="K20" s="30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="19"/>
+      <c r="B21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="10">
-        <v>9</v>
-      </c>
-      <c r="D21" s="11">
-        <v>9</v>
-      </c>
-      <c r="E21" s="12">
-        <v>9</v>
-      </c>
-      <c r="F21" s="10">
-        <v>9</v>
-      </c>
-      <c r="G21" s="16">
-        <v>9</v>
-      </c>
-      <c r="H21" s="12">
-        <v>9</v>
-      </c>
-      <c r="I21">
+      <c r="C21" s="5">
+        <v>9</v>
+      </c>
+      <c r="D21" s="6">
+        <v>9</v>
+      </c>
+      <c r="E21" s="7">
+        <v>9</v>
+      </c>
+      <c r="F21" s="5">
+        <v>9</v>
+      </c>
+      <c r="G21" s="11">
+        <v>9</v>
+      </c>
+      <c r="H21" s="6">
+        <v>9</v>
+      </c>
+      <c r="I21" s="27">
+        <v>9</v>
+      </c>
+      <c r="J21" s="6">
+        <v>9</v>
+      </c>
+      <c r="K21" s="28">
         <v>9</v>
       </c>
       <c r="O21">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="18" t="s">
+    <row r="22" spans="1:15">
+      <c r="A22" s="19"/>
+      <c r="B22" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="5">
         <v>8</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="6">
         <v>8</v>
       </c>
-      <c r="E22" s="12">
-        <v>9</v>
-      </c>
-      <c r="F22" s="10">
-        <v>9</v>
-      </c>
-      <c r="G22" s="16">
-        <v>9</v>
-      </c>
-      <c r="H22" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="18" t="s">
+      <c r="E22" s="7">
+        <v>9</v>
+      </c>
+      <c r="F22" s="5">
+        <v>9</v>
+      </c>
+      <c r="G22" s="11">
+        <v>9</v>
+      </c>
+      <c r="H22" s="6">
+        <v>9</v>
+      </c>
+      <c r="I22" s="29">
+        <v>5</v>
+      </c>
+      <c r="J22" s="11">
+        <v>5</v>
+      </c>
+      <c r="K22" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="28"/>
+    </row>
+    <row r="24" spans="1:15" ht="15.95" customHeight="1">
+      <c r="A24" s="15"/>
+      <c r="B24" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="5">
         <v>8</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="6">
         <v>8</v>
       </c>
-      <c r="E24" s="12">
-        <v>9</v>
-      </c>
-      <c r="F24" s="10">
+      <c r="E24" s="7">
+        <v>9</v>
+      </c>
+      <c r="F24" s="5">
         <v>4</v>
       </c>
-      <c r="G24" s="16">
-        <v>5</v>
-      </c>
-      <c r="H24" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="19" t="s">
+      <c r="G24" s="11">
+        <v>5</v>
+      </c>
+      <c r="H24" s="6">
+        <v>5</v>
+      </c>
+      <c r="I24" s="29">
+        <v>8</v>
+      </c>
+      <c r="J24" s="11">
+        <v>8</v>
+      </c>
+      <c r="K24" s="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="16.5" thickBot="1">
+      <c r="A25" s="16"/>
+      <c r="B25" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="8">
         <v>8</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="9">
         <v>8</v>
       </c>
-      <c r="E25" s="15">
-        <v>9</v>
-      </c>
-      <c r="F25" s="13">
-        <v>3</v>
-      </c>
-      <c r="G25" s="14">
+      <c r="E25" s="10">
+        <v>9</v>
+      </c>
+      <c r="F25" s="8">
+        <v>3</v>
+      </c>
+      <c r="G25" s="9">
         <v>4</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I25" s="31">
+        <v>5</v>
+      </c>
+      <c r="J25" s="32">
+        <v>5</v>
+      </c>
+      <c r="K25" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" s="2"/>
     </row>
   </sheetData>
@@ -1382,32 +1631,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01AA4A7-E506-4149-9A59-146ABAA951E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10C5A40-AD4A-BE48-B48C-BB9D449109E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="4ea5e6aa-6838-422c-a4a7-68563e031b96">
@@ -1429,15 +1687,6 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1606,19 +1855,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA10A8D5-7A56-491A-B32C-ED2A0C63273C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1372794-2848-40D0-8759-186E2A57CF9C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="4ea5e6aa-6838-422c-a4a7-68563e031b96"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA10A8D5-7A56-491A-B32C-ED2A0C63273C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/MGMT/PLAN/PP/WORK IN PROGRESS/skillsets.xlsx
+++ b/MGMT/PLAN/PP/WORK IN PROGRESS/skillsets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="19440" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="19440" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="1st qtr" sheetId="1" r:id="rId1"/>
@@ -120,11 +120,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -132,7 +132,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -140,8 +140,15 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -387,6 +394,23 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -402,26 +426,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -753,7 +760,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -763,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -777,26 +784,26 @@
     <row r="1" spans="1:15">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
-      <c r="C1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="18" t="s">
+      <c r="C1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="27"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
       <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,7 +829,7 @@
       <c r="H2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="18" t="s">
         <v>27</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -845,7 +852,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.95" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="30" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -869,21 +876,30 @@
       <c r="H3" s="6">
         <v>9</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="19">
         <v>7</v>
       </c>
       <c r="J3" s="6">
         <v>7</v>
       </c>
-      <c r="K3" s="28">
-        <v>7</v>
+      <c r="K3" s="20">
+        <v>7</v>
+      </c>
+      <c r="L3" s="5">
+        <v>8</v>
+      </c>
+      <c r="M3" s="11">
+        <v>9</v>
+      </c>
+      <c r="N3" s="6">
+        <v>9</v>
       </c>
       <c r="O3">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="19"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -905,21 +921,30 @@
       <c r="H4" s="6">
         <v>7</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="19">
         <v>0</v>
       </c>
       <c r="J4" s="6">
         <v>0</v>
       </c>
-      <c r="K4" s="28">
-        <v>0</v>
+      <c r="K4" s="20">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
+        <v>2</v>
+      </c>
+      <c r="N4" s="6">
+        <v>2</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="19"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="13" t="s">
         <v>21</v>
       </c>
@@ -941,18 +966,27 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="21">
         <v>1</v>
       </c>
       <c r="J5" s="6">
         <v>1</v>
       </c>
-      <c r="K5" s="28">
-        <v>1</v>
+      <c r="K5" s="20">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5">
+        <v>6</v>
+      </c>
+      <c r="M5" s="11">
+        <v>6</v>
+      </c>
+      <c r="N5" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="19"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
@@ -974,21 +1008,30 @@
       <c r="H6" s="6">
         <v>6</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="19">
         <v>4</v>
       </c>
       <c r="J6" s="6">
         <v>4</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="20">
         <v>4</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="11">
+        <v>4</v>
+      </c>
+      <c r="N6" s="6">
+        <v>6</v>
       </c>
       <c r="O6">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="19"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
@@ -1008,21 +1051,28 @@
         <v>3</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="27">
+      <c r="I7" s="19">
         <v>3</v>
       </c>
       <c r="J7" s="6">
         <v>3</v>
       </c>
-      <c r="K7" s="28">
-        <v>3</v>
-      </c>
+      <c r="K7" s="20">
+        <v>3</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+      <c r="M7" s="11">
+        <v>3</v>
+      </c>
+      <c r="N7" s="6"/>
       <c r="O7">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="19"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="13" t="s">
         <v>22</v>
       </c>
@@ -1038,18 +1088,27 @@
       <c r="H8" s="6">
         <v>5</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="21">
         <v>2</v>
       </c>
       <c r="J8" s="11">
         <v>2</v>
       </c>
-      <c r="K8" s="28">
-        <v>3</v>
+      <c r="K8" s="20">
+        <v>3</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="11">
+        <v>3</v>
+      </c>
+      <c r="N8" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="19"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="13" t="s">
         <v>9</v>
       </c>
@@ -1071,21 +1130,30 @@
       <c r="H9" s="6">
         <v>7</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="19">
         <v>0</v>
       </c>
       <c r="J9" s="6">
         <v>0</v>
       </c>
-      <c r="K9" s="28">
-        <v>0</v>
+      <c r="K9" s="20">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>4</v>
+      </c>
+      <c r="M9" s="11">
+        <v>6</v>
+      </c>
+      <c r="N9" s="6">
+        <v>8</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="19"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="13" t="s">
         <v>23</v>
       </c>
@@ -1107,21 +1175,30 @@
       <c r="H10" s="6">
         <v>5</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="19">
         <v>0</v>
       </c>
       <c r="J10" s="6">
         <v>0</v>
       </c>
-      <c r="K10" s="28">
-        <v>0</v>
+      <c r="K10" s="20">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>5</v>
+      </c>
+      <c r="M10" s="11">
+        <v>5</v>
+      </c>
+      <c r="N10" s="6">
+        <v>5</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="19"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="13" t="s">
         <v>11</v>
       </c>
@@ -1143,21 +1220,30 @@
       <c r="H11" s="6">
         <v>7</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="19">
         <v>4</v>
       </c>
       <c r="J11" s="6">
         <v>4</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="20">
         <v>4</v>
       </c>
+      <c r="L11" s="5">
+        <v>7</v>
+      </c>
+      <c r="M11" s="11">
+        <v>7</v>
+      </c>
+      <c r="N11" s="6">
+        <v>7</v>
+      </c>
       <c r="O11">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="19"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="13" t="s">
         <v>12</v>
       </c>
@@ -1179,21 +1265,30 @@
       <c r="H12" s="6">
         <v>7</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="19">
         <v>3</v>
       </c>
       <c r="J12" s="6">
         <v>3</v>
       </c>
-      <c r="K12" s="28">
-        <v>3</v>
+      <c r="K12" s="20">
+        <v>3</v>
+      </c>
+      <c r="L12" s="5">
+        <v>3</v>
+      </c>
+      <c r="M12" s="11">
+        <v>4</v>
+      </c>
+      <c r="N12" s="6">
+        <v>5</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="19"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="13" t="s">
         <v>13</v>
       </c>
@@ -1215,18 +1310,27 @@
       <c r="H13" s="6">
         <v>7</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="21">
         <v>1</v>
       </c>
       <c r="J13" s="11">
         <v>1</v>
       </c>
-      <c r="K13" s="30">
-        <v>1</v>
+      <c r="K13" s="22">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5">
+        <v>7</v>
+      </c>
+      <c r="M13" s="11">
+        <v>7</v>
+      </c>
+      <c r="N13" s="6">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="19"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="13" t="s">
         <v>14</v>
       </c>
@@ -1248,18 +1352,27 @@
       <c r="H14" s="6">
         <v>7</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="21">
         <v>3</v>
       </c>
       <c r="J14" s="11">
         <v>3</v>
       </c>
-      <c r="K14" s="30">
-        <v>3</v>
+      <c r="K14" s="22">
+        <v>3</v>
+      </c>
+      <c r="L14" s="5">
+        <v>5</v>
+      </c>
+      <c r="M14" s="11">
+        <v>5</v>
+      </c>
+      <c r="N14" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="19"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="13" t="s">
         <v>15</v>
       </c>
@@ -1281,18 +1394,27 @@
       <c r="H15" s="6">
         <v>7</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="21">
         <v>0</v>
       </c>
       <c r="J15" s="11">
         <v>0</v>
       </c>
-      <c r="K15" s="30">
-        <v>0</v>
+      <c r="K15" s="22">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>5</v>
+      </c>
+      <c r="M15" s="11">
+        <v>5</v>
+      </c>
+      <c r="N15" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="19"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="13" t="s">
         <v>16</v>
       </c>
@@ -1314,18 +1436,27 @@
       <c r="H16" s="6">
         <v>8</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="21">
         <v>5</v>
       </c>
       <c r="J16" s="11">
         <v>5</v>
       </c>
-      <c r="K16" s="30">
-        <v>5</v>
+      <c r="K16" s="22">
+        <v>5</v>
+      </c>
+      <c r="L16" s="5">
+        <v>3</v>
+      </c>
+      <c r="M16" s="11">
+        <v>3</v>
+      </c>
+      <c r="N16" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="19"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="13" t="s">
         <v>20</v>
       </c>
@@ -1347,18 +1478,27 @@
       <c r="H17" s="6">
         <v>1</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="21">
         <v>3</v>
       </c>
       <c r="J17" s="11">
         <v>3</v>
       </c>
-      <c r="K17" s="30">
-        <v>3</v>
+      <c r="K17" s="22">
+        <v>3</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1</v>
+      </c>
+      <c r="M17" s="11">
+        <v>1</v>
+      </c>
+      <c r="N17" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="19"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="13" t="s">
         <v>30</v>
       </c>
@@ -1380,14 +1520,23 @@
       <c r="H18" s="6">
         <v>6</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="21">
         <v>3</v>
       </c>
       <c r="J18" s="11">
         <v>3</v>
       </c>
-      <c r="K18" s="30">
-        <v>3</v>
+      <c r="K18" s="22">
+        <v>3</v>
+      </c>
+      <c r="L18" s="5">
+        <v>2</v>
+      </c>
+      <c r="M18" s="11">
+        <v>4</v>
+      </c>
+      <c r="N18" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1399,12 +1548,15 @@
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="27"/>
+      <c r="I19" s="19"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="28"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="30" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -1428,18 +1580,27 @@
       <c r="H20" s="6">
         <v>7</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="21">
         <v>7</v>
       </c>
       <c r="J20" s="11">
         <v>7</v>
       </c>
-      <c r="K20" s="30">
+      <c r="K20" s="22">
+        <v>7</v>
+      </c>
+      <c r="L20" s="5">
+        <v>7</v>
+      </c>
+      <c r="M20" s="11">
+        <v>7</v>
+      </c>
+      <c r="N20" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="19"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="13" t="s">
         <v>10</v>
       </c>
@@ -1461,13 +1622,22 @@
       <c r="H21" s="6">
         <v>9</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="19">
         <v>9</v>
       </c>
       <c r="J21" s="6">
         <v>9</v>
       </c>
-      <c r="K21" s="28">
+      <c r="K21" s="20">
+        <v>9</v>
+      </c>
+      <c r="L21" s="5">
+        <v>9</v>
+      </c>
+      <c r="M21" s="11">
+        <v>9</v>
+      </c>
+      <c r="N21" s="6">
         <v>9</v>
       </c>
       <c r="O21">
@@ -1475,7 +1645,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="19"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="13" t="s">
         <v>19</v>
       </c>
@@ -1497,14 +1667,23 @@
       <c r="H22" s="6">
         <v>9</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="21">
         <v>5</v>
       </c>
       <c r="J22" s="11">
         <v>5</v>
       </c>
-      <c r="K22" s="30">
-        <v>5</v>
+      <c r="K22" s="22">
+        <v>5</v>
+      </c>
+      <c r="L22" s="5">
+        <v>9</v>
+      </c>
+      <c r="M22" s="11">
+        <v>9</v>
+      </c>
+      <c r="N22" s="6">
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1516,9 +1695,12 @@
       <c r="F23" s="5"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="27"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="28"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
     </row>
     <row r="24" spans="1:15" ht="15.95" customHeight="1">
       <c r="A24" s="15"/>
@@ -1543,14 +1725,23 @@
       <c r="H24" s="6">
         <v>5</v>
       </c>
-      <c r="I24" s="29">
+      <c r="I24" s="21">
         <v>8</v>
       </c>
       <c r="J24" s="11">
         <v>8</v>
       </c>
-      <c r="K24" s="30">
+      <c r="K24" s="22">
         <v>8</v>
+      </c>
+      <c r="L24" s="5">
+        <v>3</v>
+      </c>
+      <c r="M24" s="11">
+        <v>3</v>
+      </c>
+      <c r="N24" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="16.5" thickBot="1">
@@ -1576,14 +1767,23 @@
       <c r="H25" s="9">
         <v>4</v>
       </c>
-      <c r="I25" s="31">
-        <v>5</v>
-      </c>
-      <c r="J25" s="32">
-        <v>5</v>
-      </c>
-      <c r="K25" s="33">
-        <v>5</v>
+      <c r="I25" s="23">
+        <v>5</v>
+      </c>
+      <c r="J25" s="24">
+        <v>5</v>
+      </c>
+      <c r="K25" s="25">
+        <v>5</v>
+      </c>
+      <c r="L25" s="8">
+        <v>1</v>
+      </c>
+      <c r="M25" s="9">
+        <v>1</v>
+      </c>
+      <c r="N25" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1625,8 +1825,9 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1638,6 +1839,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1652,20 +1854,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="4ea5e6aa-6838-422c-a4a7-68563e031b96">
@@ -1687,6 +1881,15 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1855,19 +2058,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA10A8D5-7A56-491A-B32C-ED2A0C63273C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1372794-2848-40D0-8759-186E2A57CF9C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ea5e6aa-6838-422c-a4a7-68563e031b96"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1372794-2848-40D0-8759-186E2A57CF9C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA10A8D5-7A56-491A-B32C-ED2A0C63273C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ea5e6aa-6838-422c-a4a7-68563e031b96"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/MGMT/PLAN/PP/WORK IN PROGRESS/skillsets.xlsx
+++ b/MGMT/PLAN/PP/WORK IN PROGRESS/skillsets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kmb/learning/MTECH/SE25PT7SERIS/MGMT/PLAN/PP/WORK IN PROGRESS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF8E55D-DD69-2944-A63A-5C1F56A15913}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2EC219-D500-EA4B-9100-88ACDD5AFB8A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -303,18 +303,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -331,13 +319,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,7 +683,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -694,51 +694,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
       <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -767,25 +767,25 @@
       <c r="A3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10">
-        <v>7</v>
-      </c>
-      <c r="D3" s="11">
-        <v>7</v>
-      </c>
-      <c r="E3" s="12">
+      <c r="C3" s="6">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8">
         <v>8</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="6">
         <v>8</v>
       </c>
-      <c r="G3" s="16">
-        <v>9</v>
-      </c>
-      <c r="H3" s="12">
+      <c r="G3" s="12">
+        <v>9</v>
+      </c>
+      <c r="H3" s="8">
         <v>9</v>
       </c>
       <c r="I3">
@@ -797,25 +797,25 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="20"/>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10">
-        <v>2</v>
-      </c>
-      <c r="D4" s="11">
-        <v>2</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8">
         <v>3</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="6">
         <v>4</v>
       </c>
-      <c r="G4" s="16">
-        <v>7</v>
-      </c>
-      <c r="H4" s="12">
+      <c r="G4" s="12">
+        <v>7</v>
+      </c>
+      <c r="H4" s="8">
         <v>7</v>
       </c>
       <c r="I4">
@@ -827,49 +827,49 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="20"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="10">
-        <v>2</v>
-      </c>
-      <c r="D5" s="11">
-        <v>2</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8">
         <v>3</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="6">
         <v>0</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="12">
         <v>0</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="20"/>
-      <c r="B6" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="10">
-        <v>2</v>
-      </c>
-      <c r="D6" s="11">
-        <v>2</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="B6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8">
         <v>3</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="6">
         <v>1</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="12">
         <v>4</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="8">
         <v>6</v>
       </c>
       <c r="I6">
@@ -881,25 +881,25 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="20"/>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10">
-        <v>2</v>
-      </c>
-      <c r="D7" s="11">
-        <v>2</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="C7" s="6">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="8">
         <v>3</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="6">
         <v>1</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="12">
         <v>3</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="8"/>
       <c r="I7">
         <v>3</v>
       </c>
@@ -909,43 +909,43 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="10">
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="6">
         <v>1</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="12">
         <v>3</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="20"/>
-      <c r="B9" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="B9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="7">
         <v>1</v>
       </c>
-      <c r="E9" s="12">
-        <v>2</v>
-      </c>
-      <c r="F9" s="10">
+      <c r="E9" s="8">
+        <v>2</v>
+      </c>
+      <c r="F9" s="6">
         <v>0</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="12">
         <v>4</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="8">
         <v>7</v>
       </c>
       <c r="I9">
@@ -957,25 +957,25 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="20"/>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="6">
         <v>1</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="7">
         <v>1</v>
       </c>
-      <c r="E10" s="12">
-        <v>2</v>
-      </c>
-      <c r="F10" s="10">
+      <c r="E10" s="8">
+        <v>2</v>
+      </c>
+      <c r="F10" s="6">
         <v>5</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="12">
         <v>5</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="8">
         <v>5</v>
       </c>
       <c r="I10">
@@ -987,25 +987,25 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="20"/>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="6">
         <v>4</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="7">
         <v>4</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="8">
         <v>5</v>
       </c>
-      <c r="F11" s="10">
-        <v>7</v>
-      </c>
-      <c r="G11" s="16">
-        <v>7</v>
-      </c>
-      <c r="H11" s="12">
+      <c r="F11" s="6">
+        <v>7</v>
+      </c>
+      <c r="G11" s="12">
+        <v>7</v>
+      </c>
+      <c r="H11" s="8">
         <v>7</v>
       </c>
       <c r="I11">
@@ -1017,25 +1017,25 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="20"/>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="10">
-        <v>2</v>
-      </c>
-      <c r="D12" s="11">
-        <v>2</v>
-      </c>
-      <c r="E12" s="12">
+      <c r="C12" s="6">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2</v>
+      </c>
+      <c r="E12" s="8">
         <v>3</v>
       </c>
-      <c r="F12" s="10">
-        <v>7</v>
-      </c>
-      <c r="G12" s="16">
-        <v>7</v>
-      </c>
-      <c r="H12" s="12">
+      <c r="F12" s="6">
+        <v>7</v>
+      </c>
+      <c r="G12" s="12">
+        <v>7</v>
+      </c>
+      <c r="H12" s="8">
         <v>7</v>
       </c>
       <c r="I12">
@@ -1047,205 +1047,205 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="20"/>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="6">
         <v>1</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="7">
         <v>1</v>
       </c>
-      <c r="E13" s="12">
-        <v>2</v>
-      </c>
-      <c r="F13" s="10">
-        <v>7</v>
-      </c>
-      <c r="G13" s="16">
-        <v>7</v>
-      </c>
-      <c r="H13" s="12">
+      <c r="E13" s="8">
+        <v>2</v>
+      </c>
+      <c r="F13" s="6">
+        <v>7</v>
+      </c>
+      <c r="G13" s="12">
+        <v>7</v>
+      </c>
+      <c r="H13" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="20"/>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="10">
-        <v>2</v>
-      </c>
-      <c r="D14" s="11">
-        <v>2</v>
-      </c>
-      <c r="E14" s="12">
+      <c r="C14" s="6">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2</v>
+      </c>
+      <c r="E14" s="8">
         <v>3</v>
       </c>
-      <c r="F14" s="10">
-        <v>7</v>
-      </c>
-      <c r="G14" s="16">
-        <v>7</v>
-      </c>
-      <c r="H14" s="12">
+      <c r="F14" s="6">
+        <v>7</v>
+      </c>
+      <c r="G14" s="12">
+        <v>7</v>
+      </c>
+      <c r="H14" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="10">
-        <v>2</v>
-      </c>
-      <c r="D15" s="11">
-        <v>2</v>
-      </c>
-      <c r="E15" s="12">
+      <c r="C15" s="6">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2</v>
+      </c>
+      <c r="E15" s="8">
         <v>3</v>
       </c>
-      <c r="F15" s="10">
-        <v>7</v>
-      </c>
-      <c r="G15" s="16">
-        <v>7</v>
-      </c>
-      <c r="H15" s="12">
+      <c r="F15" s="6">
+        <v>7</v>
+      </c>
+      <c r="G15" s="12">
+        <v>7</v>
+      </c>
+      <c r="H15" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="6">
         <v>5</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="7">
         <v>5</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="8">
         <v>5</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="6">
         <v>8</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="12">
         <v>8</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="10">
-        <v>7</v>
-      </c>
-      <c r="D17" s="11">
-        <v>7</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="C17" s="6">
+        <v>7</v>
+      </c>
+      <c r="D17" s="7">
+        <v>7</v>
+      </c>
+      <c r="E17" s="8">
         <v>8</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="6">
         <v>1</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="12">
         <v>1</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="10">
-        <v>0</v>
-      </c>
-      <c r="D18" s="16">
-        <v>0</v>
-      </c>
-      <c r="E18" s="12">
-        <v>0</v>
-      </c>
-      <c r="F18" s="10">
-        <v>2</v>
-      </c>
-      <c r="G18" s="16">
+      <c r="C18" s="6">
+        <v>2</v>
+      </c>
+      <c r="D18" s="12">
+        <v>3</v>
+      </c>
+      <c r="E18" s="8">
         <v>4</v>
       </c>
-      <c r="H18" s="12">
+      <c r="F18" s="6">
+        <v>2</v>
+      </c>
+      <c r="G18" s="12">
+        <v>4</v>
+      </c>
+      <c r="H18" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="6">
         <v>8</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="7">
         <v>8</v>
       </c>
-      <c r="E20" s="12">
-        <v>9</v>
-      </c>
-      <c r="F20" s="10">
-        <v>7</v>
-      </c>
-      <c r="G20" s="16">
-        <v>7</v>
-      </c>
-      <c r="H20" s="12">
+      <c r="E20" s="8">
+        <v>9</v>
+      </c>
+      <c r="F20" s="6">
+        <v>7</v>
+      </c>
+      <c r="G20" s="12">
+        <v>7</v>
+      </c>
+      <c r="H20" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="10">
-        <v>9</v>
-      </c>
-      <c r="D21" s="11">
-        <v>9</v>
-      </c>
-      <c r="E21" s="12">
-        <v>9</v>
-      </c>
-      <c r="F21" s="10">
-        <v>9</v>
-      </c>
-      <c r="G21" s="16">
-        <v>9</v>
-      </c>
-      <c r="H21" s="12">
+      <c r="C21" s="6">
+        <v>9</v>
+      </c>
+      <c r="D21" s="7">
+        <v>9</v>
+      </c>
+      <c r="E21" s="8">
+        <v>9</v>
+      </c>
+      <c r="F21" s="6">
+        <v>9</v>
+      </c>
+      <c r="G21" s="12">
+        <v>9</v>
+      </c>
+      <c r="H21" s="8">
         <v>9</v>
       </c>
       <c r="I21">
@@ -1257,83 +1257,83 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="6">
         <v>8</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="7">
         <v>8</v>
       </c>
-      <c r="E22" s="12">
-        <v>9</v>
-      </c>
-      <c r="F22" s="10">
-        <v>9</v>
-      </c>
-      <c r="G22" s="16">
-        <v>9</v>
-      </c>
-      <c r="H22" s="12">
+      <c r="E22" s="8">
+        <v>9</v>
+      </c>
+      <c r="F22" s="6">
+        <v>9</v>
+      </c>
+      <c r="G22" s="12">
+        <v>9</v>
+      </c>
+      <c r="H22" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="18" t="s">
+      <c r="A24" s="16"/>
+      <c r="B24" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="6">
         <v>8</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="7">
         <v>8</v>
       </c>
-      <c r="E24" s="12">
-        <v>9</v>
-      </c>
-      <c r="F24" s="10">
+      <c r="E24" s="8">
+        <v>9</v>
+      </c>
+      <c r="F24" s="6">
         <v>4</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="12">
         <v>5</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="19" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="9">
         <v>8</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="10">
         <v>8</v>
       </c>
-      <c r="E25" s="15">
-        <v>9</v>
-      </c>
-      <c r="F25" s="13">
+      <c r="E25" s="11">
+        <v>9</v>
+      </c>
+      <c r="F25" s="9">
         <v>3</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="10">
         <v>4</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="11">
         <v>4</v>
       </c>
     </row>
@@ -1408,39 +1408,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="4ea5e6aa-6838-422c-a4a7-68563e031b96">
-      <UserInfo>
-        <DisplayName>MTECH-SE PT-7</DisplayName>
-        <AccountId>7</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Treza Bawm Win</DisplayName>
-        <AccountId>14</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kaung Myat Bo</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005B49AD9B331C4641B4046595A2039F92" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f9b45159473b27e044485c23f55d4df5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="061dbba2-bf6f-42a7-92c2-825cebdcde53" xmlns:ns3="4ea5e6aa-6838-422c-a4a7-68563e031b96" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="76cbf2ca174bf1483c4c5692bb00f5ba" ns2:_="" ns3:_="">
     <xsd:import namespace="061dbba2-bf6f-42a7-92c2-825cebdcde53"/>
@@ -1605,25 +1572,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1372794-2848-40D0-8759-186E2A57CF9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ea5e6aa-6838-422c-a4a7-68563e031b96"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA10A8D5-7A56-491A-B32C-ED2A0C63273C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="4ea5e6aa-6838-422c-a4a7-68563e031b96">
+      <UserInfo>
+        <DisplayName>MTECH-SE PT-7</DisplayName>
+        <AccountId>7</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Treza Bawm Win</DisplayName>
+        <AccountId>14</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Kaung Myat Bo</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21DC2B48-225D-4F29-AC2C-86F50C48D6A3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1640,4 +1622,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA10A8D5-7A56-491A-B32C-ED2A0C63273C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1372794-2848-40D0-8759-186E2A57CF9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ea5e6aa-6838-422c-a4a7-68563e031b96"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>